--- a/res/tmpl.xlsx
+++ b/res/tmpl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoobjca/github/showmetable/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BCD0F-C568-FA41-B6CA-313B89E3AF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71116526-45C8-304D-A954-91A1AFECCAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E7110FC1-BF0C-A240-8E4E-0016A38DA695}"/>
+    <workbookView xWindow="9460" yWindow="3020" windowWidth="38400" windowHeight="21600" xr2:uid="{E7110FC1-BF0C-A240-8E4E-0016A38DA695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>int(20) unsigned</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -81,49 +78,53 @@
     <t>deleted</t>
   </si>
   <si>
-    <t>tinyint(8) unsigned</t>
-  </si>
-  <si>
     <t>删除状态，0标识未删除</t>
   </si>
   <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int(20) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,20 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF24292E"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -163,6 +150,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -224,29 +218,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,160 +558,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68D4018-579D-3A43-B71F-8F080121D8C0}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="71.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="21">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="21">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>